--- a/examples/sources/data/unsolved/to_schedule/2018-12-11.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-12-11.xlsx
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O89" s="2">
         <v>43445</v>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -9595,7 +9595,7 @@
         <v>1</v>
       </c>
       <c r="N194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O194" s="2">
         <v>43445</v>
@@ -11156,7 +11156,7 @@
         <v>1</v>
       </c>
       <c r="N229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O229" s="2">
         <v>43445</v>
@@ -11197,7 +11197,7 @@
         <v>1</v>
       </c>
       <c r="N230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O230" s="2">
         <v>43445</v>
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="M231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N231">
         <v>1</v>
@@ -11276,7 +11276,7 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N232">
         <v>1</v>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="M233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N233">
         <v>1</v>
@@ -11358,7 +11358,7 @@
         <v>0</v>
       </c>
       <c r="M234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N234">
         <v>1</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="M235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N235">
         <v>1</v>
@@ -11440,7 +11440,7 @@
         <v>0</v>
       </c>
       <c r="M236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N236">
         <v>1</v>
